--- a/doc/summary.xlsx
+++ b/doc/summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Rész</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Konklúzió: a kettest lazán ki lehet majd hozni</t>
+  </si>
+  <si>
+    <t>FULL GUI</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -253,9 +256,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,22 +286,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,7 +317,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,58 +617,60 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="16" width="11.42578125" customWidth="1"/>
+    <col min="7" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -673,328 +678,348 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="20">
         <f>SUM(C3:C7)</f>
         <v>65</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="20"/>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="20"/>
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>1.7534722222222223</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <f>G4/$G$10</f>
         <v>0.37714712471994027</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>0.3</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>0.64583333333333337</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <f>J4/$J$10</f>
         <v>0.2818181818181818</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>0.3</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="8">
-        <f>0.3*I4+0.5*L4+0.2*40%</f>
-        <v>0.32</v>
-      </c>
-      <c r="P4" s="11">
+      <c r="M4" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N4" s="15">
+        <f t="shared" ref="N4:N8" si="0">M4/$M$10</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.34292343387470997</v>
+      </c>
+      <c r="P4" s="10">
         <f>((I4*1+L4*1.5+O4*2)/4.5)*$D$15</f>
-        <v>133.59444444444446</v>
-      </c>
-      <c r="Q4" s="13">
+        <v>138.00083784480537</v>
+      </c>
+      <c r="Q4" s="12">
         <f>VLOOKUP(P4,$J$13:$K$18,2)</f>
         <v>5</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="20"/>
       <c r="C5">
         <v>13</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="20"/>
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="17">
         <v>0.87152777777777779</v>
       </c>
-      <c r="H5" s="17">
-        <f t="shared" ref="H5:H8" si="0">G5/$G$10</f>
+      <c r="H5" s="15">
+        <f t="shared" ref="H5:H8" si="1">G5/$G$10</f>
         <v>0.18745332337565349</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>0.25</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>0.5625</v>
       </c>
-      <c r="K5" s="17">
-        <f t="shared" ref="K5:K8" si="1">J5/$J$10</f>
+      <c r="K5" s="15">
+        <f t="shared" ref="K5:K8" si="2">J5/$J$10</f>
         <v>0.24545454545454543</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>0.22</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="8">
-        <f>0.3*I5+0.5*L5+0.2*30%</f>
-        <v>0.245</v>
-      </c>
-      <c r="P5" s="11">
-        <f t="shared" ref="P5:P8" si="2">((I5*1+L5*1.5+O5*2)/4.5)*$D$15</f>
-        <v>102.83888888888889</v>
-      </c>
-      <c r="Q5" s="13">
+      <c r="M5" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.20835266821345705</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" ref="P5:P8" si="3">((I5*1+L5*1.5+O5*2)/4.5)*$D$15</f>
+        <v>95.794457334364523</v>
+      </c>
+      <c r="Q5" s="12">
         <f>VLOOKUP(P5,$J$13:$K$18,2)</f>
         <v>5</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="20"/>
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="20"/>
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <v>0.81597222222222221</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.17550410754294249</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="2"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="N6" s="15">
         <f t="shared" si="0"/>
-        <v>0.17550410754294249</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="K6" s="17">
-        <f t="shared" si="1"/>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0.22</v>
-      </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="8">
-        <f>0.3*I6+0.5*L6+0.2*30%</f>
-        <v>0.245</v>
-      </c>
-      <c r="P6" s="11">
-        <f t="shared" si="2"/>
-        <v>102.83888888888889</v>
-      </c>
-      <c r="Q6" s="13">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.19535962877030161</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="3"/>
+        <v>93.296906419180203</v>
+      </c>
+      <c r="Q6" s="12">
         <f>VLOOKUP(P6,$J$13:$K$18,2)</f>
         <v>5</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="20"/>
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="20"/>
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.12546676624346528</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="2"/>
+        <v>0.14545454545454542</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M7" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N7" s="15">
         <f t="shared" si="0"/>
-        <v>0.12546676624346528</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K7" s="17">
-        <f t="shared" si="1"/>
-        <v>0.14545454545454542</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="8">
-        <f>0.3*I7+0.5*L7+0.2*0%</f>
-        <v>0.105</v>
-      </c>
-      <c r="P7" s="11">
-        <f t="shared" si="2"/>
-        <v>51.419444444444437</v>
-      </c>
-      <c r="Q7" s="13">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.12807424593967517</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="3"/>
+        <v>55.854827275070903</v>
+      </c>
+      <c r="Q7" s="12">
         <f>VLOOKUP(P7,$J$13:$K$18,2)</f>
-        <v>2</v>
-      </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C8">
         <v>35</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="20">
         <f>SUM(C8:C10)</f>
         <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>0.625</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.13442867811799852</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="M8" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N8" s="15">
         <f t="shared" si="0"/>
-        <v>0.13442867811799852</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="K8" s="17">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="8">
-        <f>0.3*I8+0.5*L8+0.2*0%</f>
-        <v>8.4999999999999992E-2</v>
-      </c>
-      <c r="P8" s="14">
-        <f t="shared" si="2"/>
-        <v>41.80833333333333</v>
-      </c>
-      <c r="Q8" s="15">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.12529002320185614</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" si="3"/>
+        <v>49.552971126579024</v>
+      </c>
+      <c r="Q8" s="14">
         <f>VLOOKUP(P8,$J$13:$K$18,2)</f>
         <v>2</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="20"/>
       <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="G9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="G9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="20"/>
       <c r="C10">
         <v>35</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="20"/>
       <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="19">
-        <f t="shared" ref="G10:H10" si="3">SUM(G4:G8)</f>
+      <c r="G10" s="17">
+        <f t="shared" ref="G10:H10" si="4">SUM(G4:G8)</f>
         <v>4.6493055555555554</v>
       </c>
-      <c r="H10" s="8">
-        <f t="shared" si="3"/>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f>SUM(I4:I8)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="19">
-        <f t="shared" ref="J10:O10" si="4">SUM(J4:J8)</f>
+      <c r="J10" s="17">
+        <f t="shared" ref="J10:O10" si="5">SUM(J4:J8)</f>
         <v>2.291666666666667</v>
       </c>
-      <c r="K10" s="8">
-        <f t="shared" si="4"/>
+      <c r="K10" s="7">
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L10" s="8">
-        <f t="shared" si="4"/>
+      <c r="L10" s="7">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M10" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="4"/>
+      <c r="M10" s="17">
+        <f t="shared" si="5"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -1002,13 +1027,13 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="20">
         <f>SUM(C11:C13)</f>
         <v>85</v>
       </c>
@@ -1017,36 +1042,46 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="20"/>
       <c r="C12">
         <v>35</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="20"/>
       <c r="C13">
         <v>25</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="J13" s="7" t="s">
+      <c r="D13" s="20"/>
+      <c r="J13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="7">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>1</v>
+      </c>
+      <c r="M14">
+        <f>(G4+J4+M4)/($G$10+$J$10+$M$10)</f>
+        <v>0.34292343387470997</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1057,57 +1092,91 @@
         <f>(D3*0.3+D8*0.5+D11*0.2)*5</f>
         <v>432.5</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="7">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6">
         <v>40</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>2</v>
       </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M18" si="6">(G5+J5+M5)/($G$10+$J$10+$M$10)</f>
+        <v>0.20835266821345705</v>
+      </c>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="7">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6">
         <v>54</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>0.19535962877030161</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6">
         <v>68</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="7">
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>0.12807424593967517</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6">
         <v>82</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>0.12529002320185614</v>
+      </c>
+      <c r="N18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f>SUM(M14:M18)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>

--- a/doc/summary.xlsx
+++ b/doc/summary.xlsx
@@ -606,7 +606,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,6 +1083,10 @@
       <c r="N14" t="s">
         <v>9</v>
       </c>
+      <c r="P14" s="18">
+        <f>SUM(G4,J4,M4)</f>
+        <v>2.5659722222222223</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1106,6 +1110,10 @@
       </c>
       <c r="N15" t="s">
         <v>10</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" ref="P15:P18" si="7">SUM(G5,J5,M5)</f>
+        <v>1.5590277777777777</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1124,8 +1132,12 @@
       <c r="N16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="18">
+        <f t="shared" si="7"/>
+        <v>1.4618055555555556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
@@ -1150,8 +1162,12 @@
       <c r="N17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P17" s="18">
+        <f t="shared" si="7"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="6">
@@ -1167,13 +1183,17 @@
       <c r="N18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18" s="18">
+        <f t="shared" si="7"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M20">
         <f>SUM(M14:M18)</f>
         <v>0.99999999999999989</v>
